--- a/Practica 5/Libro1.xlsx
+++ b/Practica 5/Libro1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eps\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\CIREL\Practica 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +71,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,7 +87,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,12 +110,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -121,6 +136,2488 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>|AV| en dB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8122703412073497E-2"/>
+          <c:y val="0.20966790609507144"/>
+          <c:w val="0.85087729658792655"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$3:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>-32.220296679617775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-32.220296679617775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-32.220296679617775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-32.220296679617775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-32.220296679617775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32.220296679617775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-32.220296679617775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-32.220296679617775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-32.220296679617775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-32.220296679617775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-31.525054554433538</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-31.197246230670149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-30.881360887005513</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-29.997287637164444</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-29.721521947451777</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-24.860760973725888</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-19.483854727874292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-13.201038766112983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.6854185760532072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-12.041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-15.215543086284418</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-16.901960800285135</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-18.151809764372398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-21.338935792612265</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-28.698471498504151</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-30.576561555870775</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-32.976067897405777</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-33.80392160057027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-34.249449494793318</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-34.71907141178378</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-36.901960800285131</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-38.2408965928974</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-38.610564706777659</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-39.400735532451137</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-40.270049408072943</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-40.739671325063398</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-41.762721774011027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D623-476D-B9FD-07018F512EB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="341936160"/>
+        <c:axId val="341936992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="341936160"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>frecuencia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="341936992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="341936992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>dB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="341936160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Desfase (Grados)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35968044619422573"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$3:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-64.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-80.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-77.759999999999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-89.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-86.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-85.679999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-88.559999999999988</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-87.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-86.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-82.08</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-88.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-89.28</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-87.48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-86.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-86.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-86.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-86.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC26-4334-9967-D552B9862219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="348717328"/>
+        <c:axId val="348718576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="348717328"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348718576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="348718576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Grados (º)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348717328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4484</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>84043</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>481852</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15689</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -199,6 +2696,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -234,6 +2748,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,7 +2920,7 @@
   <dimension ref="A2:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +2928,7 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -496,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G39" si="2">360*A4*F4</f>
+        <f t="shared" ref="G4:G21" si="2">360*A4*F4</f>
         <v>0</v>
       </c>
       <c r="J4" s="1">
@@ -991,7 +3522,7 @@
       <c r="C17" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>3.2653061224489799E-2</v>
       </c>
@@ -1121,7 +3652,7 @@
       <c r="C21" s="1">
         <v>0.88</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>0.4631578947368421</v>
       </c>
@@ -1379,15 +3910,15 @@
         <v>1.96</v>
       </c>
       <c r="C31" s="1">
-        <v>3.8E-3</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>1.9387755102040817E-3</v>
+        <v>1.9387755102040816E-2</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>-54.249449494793318</v>
+        <v>-34.249449494793318</v>
       </c>
       <c r="F31" s="1">
         <v>3.8E-6</v>
@@ -1607,5 +4138,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>